--- a/CHW1Data.xlsx
+++ b/CHW1Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richc\OneDrive - UW\Documents\_Courses\455\HW\CHW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parry\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{CCCBBA6E-EEF7-4B56-B500-7F107BD0179F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{45C7A02D-CF5B-41D0-9FB3-D050ACD5F46D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB1B71E-FECD-4F16-8EAF-DDC3BC743EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="16874" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BusData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bus #</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Vf</t>
-  </si>
-  <si>
-    <t>Note: Gen ground, 1 if solid ground, 0 if not grounded</t>
   </si>
   <si>
     <t>Thetaf (deg)</t>
@@ -391,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,10 +425,10 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -463,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -495,7 +492,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -527,7 +524,7 @@
         <v>-1.645</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -559,7 +556,7 @@
         <v>-4.0830000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -591,7 +588,7 @@
         <v>-4.3280000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -621,11 +618,6 @@
       </c>
       <c r="J7">
         <v>-5.2779999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -642,9 +634,9 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -661,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -678,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -695,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -712,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -729,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -746,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -763,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
